--- a/input/sample_inventory.xlsx
+++ b/input/sample_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/SL_lassa_ELISA/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\SL_lassa_ELISA\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5093B96-B45A-934E-A7DA-2EBE537B4353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DBEB0-D6E8-4C44-A6DC-78B4EDBD4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_inventory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1025">
   <si>
     <t>rodent_uid</t>
   </si>
@@ -2816,13 +2816,307 @@
   </si>
   <si>
     <t>prepped</t>
+  </si>
+  <si>
+    <t>7_LAL_001</t>
+  </si>
+  <si>
+    <t>7_LAL_002</t>
+  </si>
+  <si>
+    <t>7_LAL_003</t>
+  </si>
+  <si>
+    <t>7_LAL_004</t>
+  </si>
+  <si>
+    <t>7_LAL_005</t>
+  </si>
+  <si>
+    <t>7_LAL_006</t>
+  </si>
+  <si>
+    <t>7_LAL_007</t>
+  </si>
+  <si>
+    <t>7_LAL_008</t>
+  </si>
+  <si>
+    <t>7_LAL_009</t>
+  </si>
+  <si>
+    <t>7_LAL_010</t>
+  </si>
+  <si>
+    <t>7_LAL_011</t>
+  </si>
+  <si>
+    <t>7_LAL_012</t>
+  </si>
+  <si>
+    <t>7_LAL_013</t>
+  </si>
+  <si>
+    <t>F427</t>
+  </si>
+  <si>
+    <t>F428</t>
+  </si>
+  <si>
+    <t>F429</t>
+  </si>
+  <si>
+    <t>F430</t>
+  </si>
+  <si>
+    <t>F431</t>
+  </si>
+  <si>
+    <t>F432</t>
+  </si>
+  <si>
+    <t>F433</t>
+  </si>
+  <si>
+    <t>F434</t>
+  </si>
+  <si>
+    <t>F435</t>
+  </si>
+  <si>
+    <t>F436</t>
+  </si>
+  <si>
+    <t>F437</t>
+  </si>
+  <si>
+    <t>F438</t>
+  </si>
+  <si>
+    <t>F439</t>
+  </si>
+  <si>
+    <t>7_BAI_001</t>
+  </si>
+  <si>
+    <t>7_BAI_002</t>
+  </si>
+  <si>
+    <t>7_BAI_003</t>
+  </si>
+  <si>
+    <t>7_BAI_004</t>
+  </si>
+  <si>
+    <t>7_BAI_005</t>
+  </si>
+  <si>
+    <t>7_BAI_006</t>
+  </si>
+  <si>
+    <t>7_BAI_007</t>
+  </si>
+  <si>
+    <t>7_BAI_008</t>
+  </si>
+  <si>
+    <t>7_BAI_009</t>
+  </si>
+  <si>
+    <t>7_BAI_010</t>
+  </si>
+  <si>
+    <t>7_BAI_011</t>
+  </si>
+  <si>
+    <t>7_BAI_012</t>
+  </si>
+  <si>
+    <t>7_BAI_013</t>
+  </si>
+  <si>
+    <t>7_BAI_014</t>
+  </si>
+  <si>
+    <t>7_BAI_015</t>
+  </si>
+  <si>
+    <t>7_BAI_016</t>
+  </si>
+  <si>
+    <t>7_BAI_017</t>
+  </si>
+  <si>
+    <t>7_BAI_018</t>
+  </si>
+  <si>
+    <t>7_BAI_019</t>
+  </si>
+  <si>
+    <t>7_BAI_020</t>
+  </si>
+  <si>
+    <t>7_BAI_021</t>
+  </si>
+  <si>
+    <t>7_BAI_022</t>
+  </si>
+  <si>
+    <t>F440</t>
+  </si>
+  <si>
+    <t>F441</t>
+  </si>
+  <si>
+    <t>F442</t>
+  </si>
+  <si>
+    <t>F443</t>
+  </si>
+  <si>
+    <t>F444</t>
+  </si>
+  <si>
+    <t>F445</t>
+  </si>
+  <si>
+    <t>F446</t>
+  </si>
+  <si>
+    <t>F447</t>
+  </si>
+  <si>
+    <t>F448</t>
+  </si>
+  <si>
+    <t>F449</t>
+  </si>
+  <si>
+    <t>F450</t>
+  </si>
+  <si>
+    <t>F451</t>
+  </si>
+  <si>
+    <t>F452</t>
+  </si>
+  <si>
+    <t>F453</t>
+  </si>
+  <si>
+    <t>F454</t>
+  </si>
+  <si>
+    <t>F455</t>
+  </si>
+  <si>
+    <t>F456</t>
+  </si>
+  <si>
+    <t>F457</t>
+  </si>
+  <si>
+    <t>F458</t>
+  </si>
+  <si>
+    <t>F459</t>
+  </si>
+  <si>
+    <t>F460</t>
+  </si>
+  <si>
+    <t>F461</t>
+  </si>
+  <si>
+    <t>7_LAM_001</t>
+  </si>
+  <si>
+    <t>7_LAM_002</t>
+  </si>
+  <si>
+    <t>7_LAM_003</t>
+  </si>
+  <si>
+    <t>7_LAM_004</t>
+  </si>
+  <si>
+    <t>7_LAM_005</t>
+  </si>
+  <si>
+    <t>7_LAM_006</t>
+  </si>
+  <si>
+    <t>7_LAM_007</t>
+  </si>
+  <si>
+    <t>7_LAM_008</t>
+  </si>
+  <si>
+    <t>7_LAM_009</t>
+  </si>
+  <si>
+    <t>7_LAM_010</t>
+  </si>
+  <si>
+    <t>7_LAM_011</t>
+  </si>
+  <si>
+    <t>7_LAM_012</t>
+  </si>
+  <si>
+    <t>7_LAM_013</t>
+  </si>
+  <si>
+    <t>7_LAM_014</t>
+  </si>
+  <si>
+    <t>F462</t>
+  </si>
+  <si>
+    <t>F463</t>
+  </si>
+  <si>
+    <t>F464</t>
+  </si>
+  <si>
+    <t>F465</t>
+  </si>
+  <si>
+    <t>F466</t>
+  </si>
+  <si>
+    <t>F467</t>
+  </si>
+  <si>
+    <t>F468</t>
+  </si>
+  <si>
+    <t>F469</t>
+  </si>
+  <si>
+    <t>F470</t>
+  </si>
+  <si>
+    <t>F471</t>
+  </si>
+  <si>
+    <t>F472</t>
+  </si>
+  <si>
+    <t>F473</t>
+  </si>
+  <si>
+    <t>F474</t>
+  </si>
+  <si>
+    <t>F475</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2960,6 +3254,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3667,27 +3967,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L490"/>
+  <dimension ref="A1:L539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J539" sqref="J539"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>920</v>
       </c>
@@ -3725,7 +4025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3751,7 +4051,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3777,7 +4077,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3803,7 +4103,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3829,7 +4129,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3855,7 +4155,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3887,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3919,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3945,7 +4245,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3971,7 +4271,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3997,7 +4297,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4023,7 +4323,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4049,7 +4349,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4075,7 +4375,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4104,7 +4404,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4133,7 +4433,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4162,7 +4462,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4197,7 +4497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4226,7 +4526,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4255,7 +4555,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4284,7 +4584,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4313,7 +4613,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4342,7 +4642,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4371,7 +4671,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4406,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4435,7 +4735,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4464,7 +4764,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4493,7 +4793,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4519,7 +4819,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4545,7 +4845,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4571,7 +4871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4597,7 +4897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4617,7 +4917,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4646,7 +4946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4666,7 +4966,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4686,7 +4986,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4715,7 +5015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4744,7 +5044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4764,7 +5064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4784,7 +5084,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4804,7 +5104,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4824,7 +5124,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4844,7 +5144,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4873,7 +5173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -4902,7 +5202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -4922,7 +5222,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4951,7 +5251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -4980,7 +5280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5009,7 +5309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5038,7 +5338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5064,7 +5364,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5099,7 +5399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5125,7 +5425,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5151,7 +5451,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5177,7 +5477,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5212,7 +5512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -5238,7 +5538,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5264,7 +5564,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5299,7 +5599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5334,7 +5634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5360,7 +5660,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5395,7 +5695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5430,7 +5730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5456,7 +5756,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -5491,7 +5791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5526,7 +5826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -5552,7 +5852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -5578,7 +5878,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -5613,7 +5913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -5648,7 +5948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5674,7 +5974,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -5709,7 +6009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -5744,7 +6044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -5776,7 +6076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -5802,7 +6102,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -5828,7 +6128,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -5854,7 +6154,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -5880,7 +6180,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -5906,7 +6206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -5941,7 +6241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5976,7 +6276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -6011,7 +6311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -6040,7 +6340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -6069,7 +6369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -6095,7 +6395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -6121,7 +6421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -6147,7 +6447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -6173,7 +6473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -6199,7 +6499,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -6225,7 +6525,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -6251,7 +6551,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -6277,7 +6577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -6303,7 +6603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -6329,7 +6629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -6355,7 +6655,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -6381,7 +6681,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -6407,7 +6707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -6433,7 +6733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -6459,7 +6759,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -6485,7 +6785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -6511,7 +6811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -6537,7 +6837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -6563,7 +6863,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6589,7 +6889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6615,7 +6915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6641,7 +6941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -6667,7 +6967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -6693,7 +6993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6719,7 +7019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6745,7 +7045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -6771,7 +7071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -6797,7 +7097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -6823,7 +7123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -6849,7 +7149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -6875,7 +7175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -6901,7 +7201,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -6927,7 +7227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -6953,7 +7253,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -6979,7 +7279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -7005,7 +7305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -7031,7 +7331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -7057,7 +7357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -7083,7 +7383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -7109,7 +7409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -7135,7 +7435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -7161,7 +7461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -7187,7 +7487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -7213,7 +7513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -7239,7 +7539,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -7265,7 +7565,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -7291,7 +7591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -7317,7 +7617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -7343,7 +7643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -7369,7 +7669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -7395,7 +7695,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
@@ -7421,7 +7721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -7447,7 +7747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -7473,7 +7773,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -7496,7 +7796,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -7519,7 +7819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -7542,7 +7842,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -7565,7 +7865,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -7588,7 +7888,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -7611,7 +7911,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -7634,7 +7934,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -7657,7 +7957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -7680,7 +7980,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -7703,7 +8003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -7726,7 +8026,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -7749,7 +8049,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -7772,7 +8072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -7795,7 +8095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -7818,7 +8118,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -7838,7 +8138,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -7861,7 +8161,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -7884,7 +8184,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -7907,7 +8207,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -7930,7 +8230,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -7953,7 +8253,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -7976,7 +8276,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -8002,7 +8302,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3</v>
       </c>
@@ -8028,7 +8328,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3</v>
       </c>
@@ -8060,7 +8360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -8086,7 +8386,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -8115,7 +8415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -8147,7 +8447,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -8179,7 +8479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -8205,7 +8505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -8231,7 +8531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -8257,7 +8557,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -8283,7 +8583,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -8309,7 +8609,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3</v>
       </c>
@@ -8335,7 +8635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -8361,7 +8661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -8387,7 +8687,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -8413,7 +8713,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -8439,7 +8739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -8465,7 +8765,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -8491,7 +8791,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -8517,7 +8817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -8543,7 +8843,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -8569,7 +8869,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -8595,7 +8895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -8621,7 +8921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -8647,7 +8947,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3</v>
       </c>
@@ -8673,7 +8973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3</v>
       </c>
@@ -8699,7 +8999,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -8725,7 +9025,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3</v>
       </c>
@@ -8751,7 +9051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -8777,7 +9077,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -8803,7 +9103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -8829,7 +9129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -8855,7 +9155,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
@@ -8881,7 +9181,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -8907,7 +9207,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -8933,7 +9233,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -8959,7 +9259,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -8979,7 +9279,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4</v>
       </c>
@@ -8999,7 +9299,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4</v>
       </c>
@@ -9019,7 +9319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -9039,7 +9339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4</v>
       </c>
@@ -9059,7 +9359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -9079,7 +9379,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -9099,7 +9399,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -9119,7 +9419,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -9139,7 +9439,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4</v>
       </c>
@@ -9159,7 +9459,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4</v>
       </c>
@@ -9179,7 +9479,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -9199,7 +9499,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4</v>
       </c>
@@ -9219,7 +9519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4</v>
       </c>
@@ -9239,7 +9539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4</v>
       </c>
@@ -9259,7 +9559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4</v>
       </c>
@@ -9279,7 +9579,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4</v>
       </c>
@@ -9299,7 +9599,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -9319,7 +9619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4</v>
       </c>
@@ -9339,7 +9639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4</v>
       </c>
@@ -9362,7 +9662,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4</v>
       </c>
@@ -9385,7 +9685,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -9408,7 +9708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4</v>
       </c>
@@ -9431,7 +9731,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -9454,7 +9754,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -9477,7 +9777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -9500,7 +9800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4</v>
       </c>
@@ -9523,7 +9823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -9546,7 +9846,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -9569,7 +9869,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -9592,7 +9892,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
@@ -9615,7 +9915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4</v>
       </c>
@@ -9638,7 +9938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -9661,7 +9961,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4</v>
       </c>
@@ -9684,7 +9984,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -9707,7 +10007,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -9730,7 +10030,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4</v>
       </c>
@@ -9753,7 +10053,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -9776,7 +10076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4</v>
       </c>
@@ -9799,7 +10099,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -9822,7 +10122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4</v>
       </c>
@@ -9845,7 +10145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -9868,7 +10168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4</v>
       </c>
@@ -9891,7 +10191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -9914,7 +10214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -9937,7 +10237,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -9960,7 +10260,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4</v>
       </c>
@@ -9983,7 +10283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -10006,7 +10306,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4</v>
       </c>
@@ -10029,7 +10329,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4</v>
       </c>
@@ -10052,7 +10352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -10075,7 +10375,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4</v>
       </c>
@@ -10098,7 +10398,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4</v>
       </c>
@@ -10121,7 +10421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4</v>
       </c>
@@ -10144,7 +10444,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4</v>
       </c>
@@ -10167,7 +10467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4</v>
       </c>
@@ -10190,7 +10490,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4</v>
       </c>
@@ -10213,7 +10513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4</v>
       </c>
@@ -10236,7 +10536,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4</v>
       </c>
@@ -10259,7 +10559,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -10282,7 +10582,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4</v>
       </c>
@@ -10308,7 +10608,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4</v>
       </c>
@@ -10334,7 +10634,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4</v>
       </c>
@@ -10360,7 +10660,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4</v>
       </c>
@@ -10386,7 +10686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -10412,7 +10712,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4</v>
       </c>
@@ -10438,7 +10738,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4</v>
       </c>
@@ -10464,7 +10764,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4</v>
       </c>
@@ -10487,7 +10787,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -10510,7 +10810,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -10533,7 +10833,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4</v>
       </c>
@@ -10556,7 +10856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4</v>
       </c>
@@ -10579,7 +10879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4</v>
       </c>
@@ -10602,7 +10902,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4</v>
       </c>
@@ -10625,7 +10925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4</v>
       </c>
@@ -10648,7 +10948,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -10674,7 +10974,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4</v>
       </c>
@@ -10700,7 +11000,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -10726,7 +11026,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4</v>
       </c>
@@ -10752,7 +11052,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4</v>
       </c>
@@ -10778,7 +11078,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -10804,7 +11104,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4</v>
       </c>
@@ -10830,7 +11130,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4</v>
       </c>
@@ -10856,7 +11156,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4</v>
       </c>
@@ -10882,7 +11182,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4</v>
       </c>
@@ -10908,7 +11208,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4</v>
       </c>
@@ -10934,7 +11234,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -10960,7 +11260,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
@@ -10986,7 +11286,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -11012,7 +11312,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4</v>
       </c>
@@ -11038,7 +11338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4</v>
       </c>
@@ -11064,7 +11364,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4</v>
       </c>
@@ -11090,7 +11390,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>4</v>
       </c>
@@ -11116,7 +11416,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4</v>
       </c>
@@ -11139,7 +11439,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4</v>
       </c>
@@ -11162,7 +11462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -11188,7 +11488,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4</v>
       </c>
@@ -11214,7 +11514,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -11240,7 +11540,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>4</v>
       </c>
@@ -11266,7 +11566,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -11292,7 +11592,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>4</v>
       </c>
@@ -11318,7 +11618,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>4</v>
       </c>
@@ -11344,7 +11644,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>4</v>
       </c>
@@ -11370,7 +11670,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -11396,7 +11696,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4</v>
       </c>
@@ -11422,7 +11722,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>4</v>
       </c>
@@ -11448,7 +11748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -11471,7 +11771,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5</v>
       </c>
@@ -11494,7 +11794,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>5</v>
       </c>
@@ -11517,7 +11817,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5</v>
       </c>
@@ -11540,7 +11840,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>5</v>
       </c>
@@ -11563,7 +11863,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -11586,7 +11886,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -11609,7 +11909,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -11632,7 +11932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -11655,7 +11955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5</v>
       </c>
@@ -11678,7 +11978,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>5</v>
       </c>
@@ -11701,7 +12001,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5</v>
       </c>
@@ -11724,7 +12024,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -11747,7 +12047,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5</v>
       </c>
@@ -11770,7 +12070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -11793,7 +12093,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>5</v>
       </c>
@@ -11816,7 +12116,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>5</v>
       </c>
@@ -11839,7 +12139,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5</v>
       </c>
@@ -11862,7 +12162,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5</v>
       </c>
@@ -11885,7 +12185,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -11908,7 +12208,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5</v>
       </c>
@@ -11931,7 +12231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -11951,7 +12251,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>5</v>
       </c>
@@ -11974,7 +12274,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>5</v>
       </c>
@@ -11997,7 +12297,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>5</v>
       </c>
@@ -12020,7 +12320,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5</v>
       </c>
@@ -12043,7 +12343,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5</v>
       </c>
@@ -12066,7 +12366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>5</v>
       </c>
@@ -12089,7 +12389,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>5</v>
       </c>
@@ -12112,7 +12412,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>5</v>
       </c>
@@ -12135,7 +12435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>5</v>
       </c>
@@ -12158,7 +12458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5</v>
       </c>
@@ -12181,7 +12481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>5</v>
       </c>
@@ -12204,7 +12504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>5</v>
       </c>
@@ -12227,7 +12527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5</v>
       </c>
@@ -12250,7 +12550,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5</v>
       </c>
@@ -12273,7 +12573,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>5</v>
       </c>
@@ -12296,7 +12596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>5</v>
       </c>
@@ -12319,7 +12619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>5</v>
       </c>
@@ -12342,7 +12642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5</v>
       </c>
@@ -12365,7 +12665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>5</v>
       </c>
@@ -12388,7 +12688,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>5</v>
       </c>
@@ -12414,7 +12714,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5</v>
       </c>
@@ -12440,7 +12740,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>5</v>
       </c>
@@ -12466,7 +12766,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>5</v>
       </c>
@@ -12492,7 +12792,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>5</v>
       </c>
@@ -12518,7 +12818,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5</v>
       </c>
@@ -12544,7 +12844,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>5</v>
       </c>
@@ -12570,7 +12870,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5</v>
       </c>
@@ -12596,7 +12896,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5</v>
       </c>
@@ -12622,7 +12922,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>5</v>
       </c>
@@ -12648,7 +12948,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>5</v>
       </c>
@@ -12674,7 +12974,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>5</v>
       </c>
@@ -12700,7 +13000,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -12726,7 +13026,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5</v>
       </c>
@@ -12752,7 +13052,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>5</v>
       </c>
@@ -12778,7 +13078,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>5</v>
       </c>
@@ -12804,7 +13104,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5</v>
       </c>
@@ -12830,7 +13130,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5</v>
       </c>
@@ -12856,7 +13156,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5</v>
       </c>
@@ -12882,7 +13182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5</v>
       </c>
@@ -12908,7 +13208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>5</v>
       </c>
@@ -12934,7 +13234,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>5</v>
       </c>
@@ -12960,7 +13260,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>5</v>
       </c>
@@ -12986,7 +13286,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>5</v>
       </c>
@@ -13012,7 +13312,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>5</v>
       </c>
@@ -13038,7 +13338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5</v>
       </c>
@@ -13064,7 +13364,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -13090,7 +13390,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5</v>
       </c>
@@ -13116,7 +13416,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5</v>
       </c>
@@ -13142,7 +13442,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -13168,7 +13468,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>5</v>
       </c>
@@ -13194,7 +13494,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>5</v>
       </c>
@@ -13220,7 +13520,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>5</v>
       </c>
@@ -13246,7 +13546,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>5</v>
       </c>
@@ -13272,7 +13572,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>5</v>
       </c>
@@ -13298,7 +13598,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>5</v>
       </c>
@@ -13324,7 +13624,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>5</v>
       </c>
@@ -13350,7 +13650,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>5</v>
       </c>
@@ -13376,7 +13676,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>5</v>
       </c>
@@ -13402,7 +13702,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>5</v>
       </c>
@@ -13428,7 +13728,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>5</v>
       </c>
@@ -13454,7 +13754,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>5</v>
       </c>
@@ -13480,7 +13780,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>5</v>
       </c>
@@ -13506,7 +13806,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>5</v>
       </c>
@@ -13532,7 +13832,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5</v>
       </c>
@@ -13558,7 +13858,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>5</v>
       </c>
@@ -13584,7 +13884,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5</v>
       </c>
@@ -13610,7 +13910,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>5</v>
       </c>
@@ -13636,7 +13936,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -13662,7 +13962,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>5</v>
       </c>
@@ -13688,7 +13988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>5</v>
       </c>
@@ -13714,7 +14014,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>5</v>
       </c>
@@ -13740,7 +14040,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>5</v>
       </c>
@@ -13766,7 +14066,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>5</v>
       </c>
@@ -13792,7 +14092,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>5</v>
       </c>
@@ -13818,7 +14118,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>5</v>
       </c>
@@ -13844,7 +14144,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>5</v>
       </c>
@@ -13870,7 +14170,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>5</v>
       </c>
@@ -13896,7 +14196,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>5</v>
       </c>
@@ -13922,7 +14222,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>6</v>
       </c>
@@ -13945,7 +14245,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>6</v>
       </c>
@@ -13968,7 +14268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>6</v>
       </c>
@@ -13991,7 +14291,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>6</v>
       </c>
@@ -14014,7 +14314,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>6</v>
       </c>
@@ -14037,7 +14337,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>6</v>
       </c>
@@ -14060,7 +14360,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>6</v>
       </c>
@@ -14083,7 +14383,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>6</v>
       </c>
@@ -14106,7 +14406,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>6</v>
       </c>
@@ -14129,7 +14429,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>6</v>
       </c>
@@ -14149,7 +14449,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>6</v>
       </c>
@@ -14172,7 +14472,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>6</v>
       </c>
@@ -14195,7 +14495,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>6</v>
       </c>
@@ -14218,7 +14518,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>6</v>
       </c>
@@ -14241,7 +14541,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>6</v>
       </c>
@@ -14264,7 +14564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>6</v>
       </c>
@@ -14287,7 +14587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>6</v>
       </c>
@@ -14310,7 +14610,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6</v>
       </c>
@@ -14333,7 +14633,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>6</v>
       </c>
@@ -14356,7 +14656,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>6</v>
       </c>
@@ -14379,7 +14679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>6</v>
       </c>
@@ -14402,7 +14702,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>6</v>
       </c>
@@ -14425,7 +14725,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6</v>
       </c>
@@ -14448,7 +14748,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>6</v>
       </c>
@@ -14471,7 +14771,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>6</v>
       </c>
@@ -14494,7 +14794,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>6</v>
       </c>
@@ -14517,7 +14817,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>6</v>
       </c>
@@ -14540,7 +14840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>6</v>
       </c>
@@ -14563,7 +14863,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>6</v>
       </c>
@@ -14586,7 +14886,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>6</v>
       </c>
@@ -14609,7 +14909,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>6</v>
       </c>
@@ -14632,7 +14932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>6</v>
       </c>
@@ -14655,7 +14955,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>6</v>
       </c>
@@ -14678,7 +14978,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>6</v>
       </c>
@@ -14701,7 +15001,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>6</v>
       </c>
@@ -14724,7 +15024,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>6</v>
       </c>
@@ -14747,7 +15047,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>6</v>
       </c>
@@ -14770,7 +15070,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>6</v>
       </c>
@@ -14793,7 +15093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>6</v>
       </c>
@@ -14816,7 +15116,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>6</v>
       </c>
@@ -14839,7 +15139,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>6</v>
       </c>
@@ -14862,7 +15162,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>6</v>
       </c>
@@ -14885,7 +15185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>6</v>
       </c>
@@ -14905,7 +15205,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>6</v>
       </c>
@@ -14925,7 +15225,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>6</v>
       </c>
@@ -14945,7 +15245,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>6</v>
       </c>
@@ -14965,7 +15265,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>6</v>
       </c>
@@ -14985,7 +15285,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>6</v>
       </c>
@@ -15005,7 +15305,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>6</v>
       </c>
@@ -15025,7 +15325,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>6</v>
       </c>
@@ -15045,7 +15345,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>6</v>
       </c>
@@ -15065,7 +15365,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>6</v>
       </c>
@@ -15091,7 +15391,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>6</v>
       </c>
@@ -15117,7 +15417,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>6</v>
       </c>
@@ -15143,7 +15443,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>6</v>
       </c>
@@ -15169,7 +15469,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>6</v>
       </c>
@@ -15195,7 +15495,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>6</v>
       </c>
@@ -15221,7 +15521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>6</v>
       </c>
@@ -15247,7 +15547,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>6</v>
       </c>
@@ -15273,7 +15573,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>6</v>
       </c>
@@ -15299,7 +15599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>6</v>
       </c>
@@ -15325,7 +15625,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>6</v>
       </c>
@@ -15351,7 +15651,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>6</v>
       </c>
@@ -15377,7 +15677,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>6</v>
       </c>
@@ -15403,7 +15703,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>6</v>
       </c>
@@ -15429,7 +15729,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>6</v>
       </c>
@@ -15455,7 +15755,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>6</v>
       </c>
@@ -15478,7 +15778,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>6</v>
       </c>
@@ -15501,7 +15801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>6</v>
       </c>
@@ -15524,7 +15824,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>6</v>
       </c>
@@ -15547,7 +15847,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>6</v>
       </c>
@@ -15570,7 +15870,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>6</v>
       </c>
@@ -15593,7 +15893,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>6</v>
       </c>
@@ -15616,7 +15916,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>6</v>
       </c>
@@ -15639,7 +15939,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>6</v>
       </c>
@@ -15662,7 +15962,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>6</v>
       </c>
@@ -15685,7 +15985,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>6</v>
       </c>
@@ -15708,7 +16008,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>6</v>
       </c>
@@ -15731,7 +16031,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>6</v>
       </c>
@@ -15754,7 +16054,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>6</v>
       </c>
@@ -15777,7 +16077,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>6</v>
       </c>
@@ -15800,7 +16100,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>6</v>
       </c>
@@ -15823,7 +16123,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>6</v>
       </c>
@@ -15846,7 +16146,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>6</v>
       </c>
@@ -15869,7 +16169,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>6</v>
       </c>
@@ -15892,7 +16192,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>6</v>
       </c>
@@ -15915,7 +16215,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>6</v>
       </c>
@@ -15938,7 +16238,652 @@
         <v>318</v>
       </c>
     </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>7</v>
+      </c>
+      <c r="B491" t="s">
+        <v>927</v>
+      </c>
+      <c r="D491">
+        <v>450</v>
+      </c>
+      <c r="F491" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>7</v>
+      </c>
+      <c r="B492" t="s">
+        <v>928</v>
+      </c>
+      <c r="D492">
+        <v>451</v>
+      </c>
+      <c r="F492" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>7</v>
+      </c>
+      <c r="B493" t="s">
+        <v>929</v>
+      </c>
+      <c r="D493">
+        <v>452</v>
+      </c>
+      <c r="F493" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>7</v>
+      </c>
+      <c r="B494" t="s">
+        <v>930</v>
+      </c>
+      <c r="D494">
+        <v>453</v>
+      </c>
+      <c r="F494" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>7</v>
+      </c>
+      <c r="B495" t="s">
+        <v>931</v>
+      </c>
+      <c r="D495">
+        <v>454</v>
+      </c>
+      <c r="F495" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>7</v>
+      </c>
+      <c r="B496" t="s">
+        <v>932</v>
+      </c>
+      <c r="D496">
+        <v>455</v>
+      </c>
+      <c r="F496" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>7</v>
+      </c>
+      <c r="B497" t="s">
+        <v>933</v>
+      </c>
+      <c r="D497">
+        <v>456</v>
+      </c>
+      <c r="F497" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>7</v>
+      </c>
+      <c r="B498" t="s">
+        <v>934</v>
+      </c>
+      <c r="D498">
+        <v>457</v>
+      </c>
+      <c r="F498" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>7</v>
+      </c>
+      <c r="B499" t="s">
+        <v>935</v>
+      </c>
+      <c r="D499">
+        <v>458</v>
+      </c>
+      <c r="F499" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>7</v>
+      </c>
+      <c r="B500" t="s">
+        <v>936</v>
+      </c>
+      <c r="D500">
+        <v>459</v>
+      </c>
+      <c r="F500" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>7</v>
+      </c>
+      <c r="B501" t="s">
+        <v>937</v>
+      </c>
+      <c r="D501">
+        <v>460</v>
+      </c>
+      <c r="F501" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>7</v>
+      </c>
+      <c r="B502" t="s">
+        <v>938</v>
+      </c>
+      <c r="D502">
+        <v>461</v>
+      </c>
+      <c r="F502" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>7</v>
+      </c>
+      <c r="B503" t="s">
+        <v>939</v>
+      </c>
+      <c r="D503">
+        <v>462</v>
+      </c>
+      <c r="F503" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>7</v>
+      </c>
+      <c r="B504" t="s">
+        <v>953</v>
+      </c>
+      <c r="D504">
+        <v>463</v>
+      </c>
+      <c r="F504" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>7</v>
+      </c>
+      <c r="B505" t="s">
+        <v>954</v>
+      </c>
+      <c r="D505">
+        <v>464</v>
+      </c>
+      <c r="F505" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>7</v>
+      </c>
+      <c r="B506" t="s">
+        <v>955</v>
+      </c>
+      <c r="D506">
+        <v>465</v>
+      </c>
+      <c r="F506" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>7</v>
+      </c>
+      <c r="B507" t="s">
+        <v>956</v>
+      </c>
+      <c r="D507">
+        <v>466</v>
+      </c>
+      <c r="F507" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>7</v>
+      </c>
+      <c r="B508" t="s">
+        <v>957</v>
+      </c>
+      <c r="D508">
+        <v>467</v>
+      </c>
+      <c r="F508" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>7</v>
+      </c>
+      <c r="B509" t="s">
+        <v>958</v>
+      </c>
+      <c r="D509">
+        <v>468</v>
+      </c>
+      <c r="F509" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>7</v>
+      </c>
+      <c r="B510" t="s">
+        <v>959</v>
+      </c>
+      <c r="D510">
+        <v>469</v>
+      </c>
+      <c r="F510" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>7</v>
+      </c>
+      <c r="B511" t="s">
+        <v>960</v>
+      </c>
+      <c r="D511">
+        <v>470</v>
+      </c>
+      <c r="F511" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>7</v>
+      </c>
+      <c r="B512" t="s">
+        <v>961</v>
+      </c>
+      <c r="D512">
+        <v>471</v>
+      </c>
+      <c r="F512" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>7</v>
+      </c>
+      <c r="B513" t="s">
+        <v>962</v>
+      </c>
+      <c r="D513">
+        <v>472</v>
+      </c>
+      <c r="F513" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>7</v>
+      </c>
+      <c r="B514" t="s">
+        <v>963</v>
+      </c>
+      <c r="D514">
+        <v>473</v>
+      </c>
+      <c r="F514" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>7</v>
+      </c>
+      <c r="B515" t="s">
+        <v>964</v>
+      </c>
+      <c r="D515">
+        <v>474</v>
+      </c>
+      <c r="F515" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>7</v>
+      </c>
+      <c r="B516" t="s">
+        <v>965</v>
+      </c>
+      <c r="D516">
+        <v>475</v>
+      </c>
+      <c r="F516" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>7</v>
+      </c>
+      <c r="B517" t="s">
+        <v>966</v>
+      </c>
+      <c r="D517">
+        <v>476</v>
+      </c>
+      <c r="F517" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>7</v>
+      </c>
+      <c r="B518" t="s">
+        <v>967</v>
+      </c>
+      <c r="D518">
+        <v>477</v>
+      </c>
+      <c r="F518" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>7</v>
+      </c>
+      <c r="B519" t="s">
+        <v>968</v>
+      </c>
+      <c r="D519">
+        <v>478</v>
+      </c>
+      <c r="F519" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>7</v>
+      </c>
+      <c r="B520" t="s">
+        <v>969</v>
+      </c>
+      <c r="D520">
+        <v>479</v>
+      </c>
+      <c r="F520" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>7</v>
+      </c>
+      <c r="B521" t="s">
+        <v>970</v>
+      </c>
+      <c r="D521">
+        <v>480</v>
+      </c>
+      <c r="F521" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>7</v>
+      </c>
+      <c r="B522" t="s">
+        <v>971</v>
+      </c>
+      <c r="D522">
+        <v>481</v>
+      </c>
+      <c r="F522" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>7</v>
+      </c>
+      <c r="B523" t="s">
+        <v>972</v>
+      </c>
+      <c r="D523">
+        <v>482</v>
+      </c>
+      <c r="F523" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>7</v>
+      </c>
+      <c r="B524" t="s">
+        <v>973</v>
+      </c>
+      <c r="D524">
+        <v>483</v>
+      </c>
+      <c r="F524" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>7</v>
+      </c>
+      <c r="B525" t="s">
+        <v>974</v>
+      </c>
+      <c r="D525">
+        <v>484</v>
+      </c>
+      <c r="F525" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>997</v>
+      </c>
+      <c r="D526">
+        <v>485</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>998</v>
+      </c>
+      <c r="D527">
+        <v>486</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>999</v>
+      </c>
+      <c r="D528">
+        <v>487</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="529" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D529">
+        <v>488</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D530">
+        <v>489</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="531" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D531">
+        <v>490</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="532" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D532">
+        <v>491</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="533" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D533">
+        <v>492</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D534">
+        <v>493</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D535">
+        <v>494</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D536">
+        <v>495</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D537">
+        <v>496</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D538">
+        <v>497</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D539">
+        <v>498</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1024</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="12" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
